--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.2_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.2_Student_Q_Sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8361D6BD-3010-49E0-BAFF-881B7CFF337E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE508B3-7C92-479B-A4A6-8308185EAC01}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -562,7 +562,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.2_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.2_Student_Q_Sheet.xlsx
@@ -8,17 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11919FB0-2B08-473E-AEC7-1310801B9732}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABFAB69-963D-4A35-8695-4A2B500264DD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9780" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -45,7 +51,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -56,16 +62,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -76,7 +84,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,58 +97,19 @@
         <bgColor theme="8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEF1E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE1A16C"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE1A16C"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE1A16C"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE1A16C"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE1A16C"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE1A16C"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE1A16C"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFE1A16C"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE1A16C"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -160,29 +129,12 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right style="thin">
         <color rgb="FFD9D9D9"/>
       </right>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD9D9D9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.79998168889431442"/>
-      </left>
-      <right style="thin">
-        <color theme="4" tint="0.79998168889431442"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color rgb="FFD9D9D9"/>
       </bottom>
@@ -193,13 +145,54 @@
         <color rgb="FFD9D9D9"/>
       </left>
       <right style="thin">
-        <color theme="4" tint="0.79998168889431442"/>
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFE1A16C"/>
       </right>
       <top style="medium">
         <color rgb="FFE1A16C"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFD9D9D9"/>
+      <bottom style="medium">
+        <color rgb="FFE1A16C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE1A16C"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE1A16C"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE1A16C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE1A16C"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE1A16C"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE1A16C"/>
       </bottom>
       <diagonal/>
     </border>
@@ -207,41 +200,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -250,12 +247,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFEF1E6"/>
+      <color rgb="FFE1A16C"/>
       <color rgb="FFD9D9D9"/>
-      <color rgb="FFE1A16C"/>
       <color rgb="FFFDC689"/>
-      <color rgb="FFFEF5F0"/>
-      <color rgb="FFFDECE3"/>
-      <color rgb="FFFEF8F4"/>
     </mruColors>
   </colors>
   <extLst>
@@ -565,8 +560,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34BA705-6451-48A8-BC72-139B2AC9FEF3}">
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -580,237 +575,248 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
     </row>
     <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
     </row>
     <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
+      <c r="A30" s="1"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
+      <c r="A32" s="1"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
+      <c r="A33" s="1"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
     </row>
     <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
     </row>
     <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="11"/>
+      <c r="A36" s="1"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
     </row>
     <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
+    </row>
+    <row r="38" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+    </row>
+    <row r="39" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.2_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.2_Student_Q_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABFAB69-963D-4A35-8695-4A2B500264DD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2A3C9D-3197-4594-8EF6-6549FE240002}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9780" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
@@ -564,7 +564,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.2_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.2_Student_Q_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2A3C9D-3197-4594-8EF6-6549FE240002}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143959DD-E3C9-4445-94B7-1B70052054CB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9780" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -43,15 +43,44 @@
   </si>
   <si>
     <t>Credit</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Miscellaneous Expense</t>
+  </si>
+  <si>
+    <t>Supplies Expense</t>
+  </si>
+  <si>
+    <t>Accounts Receivable</t>
+  </si>
+  <si>
+    <t>Accounts Payable</t>
+  </si>
+  <si>
+    <t>Salary Expense</t>
+  </si>
+  <si>
+    <t>Truck Expense</t>
+  </si>
+  <si>
+    <t>Cash Dividends</t>
+  </si>
+  <si>
+    <t>Common Stock</t>
+  </si>
+  <si>
+    <t>Fees Earned</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -200,23 +229,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -226,19 +246,25 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,246 +601,354 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
+      <c r="A2" s="2">
+        <v>42887</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C2" s="9"/>
       <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="C3" s="11"/>
       <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="1">
+        <v>42887</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="3"/>
+      <c r="B5" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="C5" s="11"/>
       <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="1">
+        <v>42888</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
+      <c r="B7" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="C7" s="11"/>
       <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="1">
+        <v>42891</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="C8" s="11"/>
       <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
+      <c r="B9" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="C9" s="11"/>
       <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="1">
+        <v>42892</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="C10" s="11"/>
       <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="3"/>
+      <c r="B11" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="3"/>
+      <c r="A12" s="1">
+        <v>42894</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="C12" s="11"/>
       <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="3"/>
+      <c r="B13" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="C13" s="11"/>
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="1">
+        <v>42895</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="C14" s="11"/>
       <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="3"/>
+      <c r="B15" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="1">
+        <v>42896</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="C16" s="11"/>
       <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="3"/>
+      <c r="B17" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="1">
+        <v>42899</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="C18" s="11"/>
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="3"/>
+      <c r="B19" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="C19" s="11"/>
       <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="3"/>
+      <c r="A20" s="1">
+        <v>42902</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="C20" s="11"/>
       <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="3"/>
+      <c r="B21" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="3"/>
+      <c r="A22" s="1">
+        <v>42903</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="C22" s="11"/>
       <c r="D22" s="12"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="3"/>
+      <c r="B23" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="C23" s="11"/>
       <c r="D23" s="12"/>
     </row>
     <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="3"/>
+      <c r="A24" s="1">
+        <v>42906</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="C24" s="11"/>
       <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="3"/>
+      <c r="B25" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="C25" s="11"/>
       <c r="D25" s="12"/>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="3"/>
+      <c r="A26" s="1">
+        <v>42907</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="3"/>
+      <c r="B27" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="C27" s="11"/>
       <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="3"/>
+      <c r="A28" s="1">
+        <v>42910</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="C28" s="11"/>
       <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="3"/>
+      <c r="B29" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="C29" s="11"/>
       <c r="D29" s="12"/>
     </row>
     <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="3"/>
+      <c r="A30" s="1">
+        <v>42911</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="C30" s="11"/>
       <c r="D30" s="12"/>
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="3"/>
+      <c r="B31" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="C31" s="11"/>
       <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="3"/>
+      <c r="A32" s="1">
+        <v>42913</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="C32" s="11"/>
       <c r="D32" s="12"/>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="3"/>
+      <c r="B33" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="C33" s="11"/>
       <c r="D33" s="12"/>
     </row>
     <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="3"/>
+      <c r="A34" s="1">
+        <v>42915</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="C34" s="11"/>
       <c r="D34" s="12"/>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="3"/>
+      <c r="B35" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="C35" s="11"/>
       <c r="D35" s="12"/>
     </row>
     <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="3"/>
+      <c r="A36" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="C36" s="11"/>
       <c r="D36" s="12"/>
     </row>
     <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="3"/>
+      <c r="B37" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="C37" s="11"/>
       <c r="D37" s="12"/>
     </row>
     <row r="38" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.2_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.2_Student_Q_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143959DD-E3C9-4445-94B7-1B70052054CB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435B427A-70B9-4C40-B7D3-F06E4E6EB081}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9780" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
@@ -113,7 +113,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,12 +124,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFDC689"/>
         <bgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFEF1E6"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -229,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -246,7 +240,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -587,7 +580,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34BA705-6451-48A8-BC72-139B2AC9FEF3}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -618,337 +611,325 @@
       <c r="A2" s="2">
         <v>42887</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>42887</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
+      <c r="B5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>42888</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42891</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
+      <c r="B8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>42892</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>42894</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
+      <c r="B13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>42895</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>42896</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>42899</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
+      <c r="B19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>42902</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12"/>
+      <c r="B20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>42903</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>42906</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
+      <c r="B24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>42907</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
+      <c r="B27" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>42910</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="12"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
     </row>
     <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>42911</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
+      <c r="B31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>42913</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
+      <c r="B33" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="11"/>
     </row>
     <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>42915</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="11"/>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="12"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11"/>
     </row>
     <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>42916</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="11"/>
     </row>
     <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="12"/>
-    </row>
-    <row r="38" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
+      <c r="B37" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.2_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.2_Student_Q_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435B427A-70B9-4C40-B7D3-F06E4E6EB081}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736A70FE-6F84-4059-BCEB-682C1D4B425B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9780" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Date</t>
   </si>
@@ -43,36 +43,6 @@
   </si>
   <si>
     <t>Credit</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>Miscellaneous Expense</t>
-  </si>
-  <si>
-    <t>Supplies Expense</t>
-  </si>
-  <si>
-    <t>Accounts Receivable</t>
-  </si>
-  <si>
-    <t>Accounts Payable</t>
-  </si>
-  <si>
-    <t>Salary Expense</t>
-  </si>
-  <si>
-    <t>Truck Expense</t>
-  </si>
-  <si>
-    <t>Cash Dividends</t>
-  </si>
-  <si>
-    <t>Common Stock</t>
-  </si>
-  <si>
-    <t>Fees Earned</t>
   </si>
 </sst>
 </file>
@@ -583,7 +553,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,326 +578,218 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>42887</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>4</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="6"/>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="B3" s="7"/>
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>42887</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="B5" s="7"/>
       <c r="C5" s="10"/>
       <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>42888</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="B7" s="7"/>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>42891</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="B9" s="7"/>
       <c r="C9" s="10"/>
       <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>42892</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>7</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="10"/>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="B11" s="7"/>
       <c r="C11" s="10"/>
       <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>42894</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="10"/>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="B13" s="7"/>
       <c r="C13" s="10"/>
       <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>42895</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>7</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="B15" s="7"/>
       <c r="C15" s="10"/>
       <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>42896</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="B17" s="7"/>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>42899</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="B19" s="7"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>42902</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="10"/>
       <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="B21" s="7"/>
       <c r="C21" s="10"/>
       <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>42903</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="10"/>
       <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="B23" s="7"/>
       <c r="C23" s="10"/>
       <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>42906</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="7"/>
       <c r="C24" s="10"/>
       <c r="D24" s="11"/>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="7" t="s">
-        <v>7</v>
-      </c>
+      <c r="B25" s="7"/>
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>42907</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="10"/>
       <c r="D26" s="11"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="B27" s="7"/>
       <c r="C27" s="10"/>
       <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>42910</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>7</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="10"/>
       <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="B29" s="7"/>
       <c r="C29" s="10"/>
       <c r="D29" s="11"/>
     </row>
     <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>42911</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A30" s="1"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="10"/>
       <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="B31" s="7"/>
       <c r="C31" s="10"/>
       <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>42913</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="7"/>
       <c r="C32" s="10"/>
       <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="B33" s="7"/>
       <c r="C33" s="10"/>
       <c r="D33" s="11"/>
     </row>
     <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>42915</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>7</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="10"/>
       <c r="D34" s="11"/>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="B35" s="7"/>
       <c r="C35" s="10"/>
       <c r="D35" s="11"/>
     </row>
     <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>42916</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="7"/>
       <c r="C36" s="10"/>
       <c r="D36" s="11"/>
     </row>
     <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="B37" s="7"/>
       <c r="C37" s="10"/>
       <c r="D37" s="11"/>
     </row>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.2_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.2_Student_Q_Sheet.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736A70FE-6F84-4059-BCEB-682C1D4B425B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319F7F07-788A-421A-8F58-9E9F4E7C6286}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9780" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -43,6 +43,36 @@
   </si>
   <si>
     <t>Credit</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Miscellaneous Expense</t>
+  </si>
+  <si>
+    <t>Supplies Expense</t>
+  </si>
+  <si>
+    <t>Accounts Receivable</t>
+  </si>
+  <si>
+    <t>Accounts Payable</t>
+  </si>
+  <si>
+    <t>Salary Expense</t>
+  </si>
+  <si>
+    <t>Truck Expense</t>
+  </si>
+  <si>
+    <t>Cash Dividends</t>
+  </si>
+  <si>
+    <t>Common Stock</t>
+  </si>
+  <si>
+    <t>Fees Earned</t>
   </si>
 </sst>
 </file>
@@ -216,16 +246,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -553,7 +583,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,218 +608,326 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="6"/>
+      <c r="A2" s="2">
+        <v>42887</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="7"/>
+      <c r="B3" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="1">
+        <v>42887</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C5" s="10"/>
       <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="7"/>
+      <c r="A6" s="1">
+        <v>42888</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="7"/>
+      <c r="B7" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="1">
+        <v>42891</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="7"/>
+      <c r="B9" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="C9" s="10"/>
       <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="1">
+        <v>42892</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="C10" s="10"/>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="C11" s="10"/>
       <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="7"/>
+      <c r="A12" s="1">
+        <v>42894</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="C12" s="10"/>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="7"/>
+      <c r="B13" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C13" s="10"/>
       <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="1">
+        <v>42895</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="7"/>
+      <c r="B15" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="C15" s="10"/>
       <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="1">
+        <v>42896</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="7"/>
+      <c r="B17" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="7"/>
+      <c r="A18" s="1">
+        <v>42899</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="7"/>
+      <c r="B19" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="7"/>
+      <c r="A20" s="1">
+        <v>42902</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C20" s="10"/>
       <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="7"/>
+      <c r="B21" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="C21" s="10"/>
       <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="7"/>
+      <c r="A22" s="1">
+        <v>42903</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="C22" s="10"/>
       <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="7"/>
+      <c r="B23" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="C23" s="10"/>
       <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="7"/>
+      <c r="A24" s="1">
+        <v>42906</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C24" s="10"/>
       <c r="D24" s="11"/>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="7"/>
+      <c r="B25" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="7"/>
+      <c r="A26" s="1">
+        <v>42907</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="C26" s="10"/>
       <c r="D26" s="11"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="7"/>
+      <c r="B27" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C27" s="10"/>
       <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="7"/>
+      <c r="A28" s="1">
+        <v>42910</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="C28" s="10"/>
       <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="7"/>
+      <c r="B29" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="C29" s="10"/>
       <c r="D29" s="11"/>
     </row>
     <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="7"/>
+      <c r="A30" s="1">
+        <v>42911</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="C30" s="10"/>
       <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="7"/>
+      <c r="B31" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C31" s="10"/>
       <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="7"/>
+      <c r="A32" s="1">
+        <v>42913</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="C32" s="10"/>
       <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="7"/>
+      <c r="B33" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C33" s="10"/>
       <c r="D33" s="11"/>
     </row>
     <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="7"/>
+      <c r="A34" s="1">
+        <v>42915</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="C34" s="10"/>
       <c r="D34" s="11"/>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="7"/>
+      <c r="B35" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="C35" s="10"/>
       <c r="D35" s="11"/>
     </row>
     <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="7"/>
+      <c r="A36" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="C36" s="10"/>
       <c r="D36" s="11"/>
     </row>
     <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="7"/>
+      <c r="B37" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C37" s="10"/>
       <c r="D37" s="11"/>
     </row>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.2_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.2_Student_Q_Sheet.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319F7F07-788A-421A-8F58-9E9F4E7C6286}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13A638C-EDDB-46EE-8F28-3BC36B45B888}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9780" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Date</t>
   </si>
@@ -44,44 +44,11 @@
   <si>
     <t>Credit</t>
   </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>Miscellaneous Expense</t>
-  </si>
-  <si>
-    <t>Supplies Expense</t>
-  </si>
-  <si>
-    <t>Accounts Receivable</t>
-  </si>
-  <si>
-    <t>Accounts Payable</t>
-  </si>
-  <si>
-    <t>Salary Expense</t>
-  </si>
-  <si>
-    <t>Truck Expense</t>
-  </si>
-  <si>
-    <t>Cash Dividends</t>
-  </si>
-  <si>
-    <t>Common Stock</t>
-  </si>
-  <si>
-    <t>Fees Earned</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -127,7 +94,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -152,7 +119,7 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color rgb="FFD9D9D9"/>
       </left>
       <right style="thin">
         <color rgb="FFD9D9D9"/>
@@ -165,56 +132,15 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFD9D9D9"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD9D9D9"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFD9D9D9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFE1A16C"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE1A16C"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color rgb="FFE1A16C"/>
       </left>
       <right style="thin">
         <color rgb="FFE1A16C"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color rgb="FFE1A16C"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFE1A16C"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE1A16C"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE1A16C"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color rgb="FFE1A16C"/>
       </bottom>
       <diagonal/>
@@ -223,33 +149,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -257,6 +168,15 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -266,9 +186,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFEF1E6"/>
       <color rgb="FFE1A16C"/>
       <color rgb="FFD9D9D9"/>
+      <color rgb="FFFEF1E6"/>
       <color rgb="FFFDC689"/>
     </mruColors>
   </colors>
@@ -583,7 +503,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,343 +513,235 @@
     <col min="3" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>42887</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>42887</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>42888</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>42891</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>42892</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>42894</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>42895</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>42896</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>42899</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>42902</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>42903</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>42906</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>42907</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>42910</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>42911</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
     </row>
     <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>42913</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>42915</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
     </row>
     <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>42916</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="11"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.2_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.2_Student_Q_Sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13A638C-EDDB-46EE-8F28-3BC36B45B888}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F2A914-DA42-46CF-9C7E-60A62A5C804B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9780" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
@@ -149,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -177,6 +177,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34BA705-6451-48A8-BC72-139B2AC9FEF3}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,7 +538,7 @@
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
     </row>
@@ -547,7 +550,7 @@
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="2"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
     </row>
@@ -559,7 +562,7 @@
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="2"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
     </row>
@@ -571,7 +574,7 @@
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="2"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
     </row>
@@ -583,7 +586,7 @@
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="2"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
     </row>
@@ -595,7 +598,7 @@
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
     </row>
@@ -607,7 +610,7 @@
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
-      <c r="B15" s="2"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
     </row>
@@ -619,7 +622,7 @@
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="B17" s="2"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="5"/>
       <c r="D17" s="6"/>
     </row>
@@ -631,7 +634,7 @@
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
-      <c r="B19" s="2"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
     </row>
@@ -643,7 +646,7 @@
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
-      <c r="B21" s="2"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6"/>
     </row>
@@ -655,7 +658,7 @@
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
-      <c r="B23" s="2"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
     </row>
@@ -667,7 +670,7 @@
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
-      <c r="B25" s="2"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="5"/>
       <c r="D25" s="6"/>
     </row>
@@ -679,7 +682,7 @@
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
-      <c r="B27" s="2"/>
+      <c r="B27" s="10"/>
       <c r="C27" s="5"/>
       <c r="D27" s="6"/>
     </row>
@@ -691,7 +694,7 @@
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
-      <c r="B29" s="2"/>
+      <c r="B29" s="10"/>
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
     </row>
@@ -703,7 +706,7 @@
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
-      <c r="B31" s="2"/>
+      <c r="B31" s="10"/>
       <c r="C31" s="5"/>
       <c r="D31" s="6"/>
     </row>
@@ -715,7 +718,7 @@
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
-      <c r="B33" s="2"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="5"/>
       <c r="D33" s="6"/>
     </row>
@@ -727,7 +730,7 @@
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
-      <c r="B35" s="2"/>
+      <c r="B35" s="10"/>
       <c r="C35" s="5"/>
       <c r="D35" s="6"/>
     </row>
@@ -739,7 +742,7 @@
     </row>
     <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
-      <c r="B37" s="2"/>
+      <c r="B37" s="10"/>
       <c r="C37" s="5"/>
       <c r="D37" s="6"/>
     </row>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.2_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.2_Student_Q_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Jasdeep\Shared\Baban\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F2A914-DA42-46CF-9C7E-60A62A5C804B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD81637A-5ECE-4C78-830F-DC04860F0147}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9780" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -505,8 +505,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34BA705-6451-48A8-BC72-139B2AC9FEF3}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.2_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.2_Student_Q_Sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Jasdeep\Shared\Baban\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD81637A-5ECE-4C78-830F-DC04860F0147}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49390837-79EC-42FE-B9C7-7A1E91F13FC2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
@@ -149,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -172,14 +172,17 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,8 +509,8 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,40 +521,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
+      <c r="A2" s="10"/>
       <c r="B2" s="1"/>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="10"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="2"/>
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="10"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
     </row>
@@ -563,7 +566,7 @@
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="10"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
     </row>
@@ -575,7 +578,7 @@
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="10"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
     </row>
@@ -587,7 +590,7 @@
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="10"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
     </row>
@@ -599,7 +602,7 @@
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="10"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
     </row>
@@ -611,7 +614,7 @@
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
-      <c r="B15" s="10"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
     </row>
@@ -623,7 +626,7 @@
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="B17" s="10"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="5"/>
       <c r="D17" s="6"/>
     </row>
@@ -635,7 +638,7 @@
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
-      <c r="B19" s="10"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
     </row>
@@ -647,7 +650,7 @@
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
-      <c r="B21" s="10"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6"/>
     </row>
@@ -659,7 +662,7 @@
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
-      <c r="B23" s="10"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
     </row>
@@ -671,7 +674,7 @@
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
-      <c r="B25" s="10"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="5"/>
       <c r="D25" s="6"/>
     </row>
@@ -683,7 +686,7 @@
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
-      <c r="B27" s="10"/>
+      <c r="B27" s="9"/>
       <c r="C27" s="5"/>
       <c r="D27" s="6"/>
     </row>
@@ -695,7 +698,7 @@
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
-      <c r="B29" s="10"/>
+      <c r="B29" s="9"/>
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
     </row>
@@ -707,7 +710,7 @@
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
-      <c r="B31" s="10"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="5"/>
       <c r="D31" s="6"/>
     </row>
@@ -719,7 +722,7 @@
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
-      <c r="B33" s="10"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="5"/>
       <c r="D33" s="6"/>
     </row>
@@ -731,7 +734,7 @@
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
-      <c r="B35" s="10"/>
+      <c r="B35" s="9"/>
       <c r="C35" s="5"/>
       <c r="D35" s="6"/>
     </row>
@@ -743,7 +746,7 @@
     </row>
     <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
-      <c r="B37" s="10"/>
+      <c r="B37" s="9"/>
       <c r="C37" s="5"/>
       <c r="D37" s="6"/>
     </row>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.2_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.2_Student_Q_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49390837-79EC-42FE-B9C7-7A1E91F13FC2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053F6AB7-E090-47E2-9439-66A2A41DC3B6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
@@ -509,8 +509,8 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I67" sqref="I67"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.2_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.2_Student_Q_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053F6AB7-E090-47E2-9439-66A2A41DC3B6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7636EC64-7B67-44CD-9EF3-00AF406F7F7E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11325" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -151,38 +151,48 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,236 +531,238 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
     </row>
     <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.2_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.2_Student_Q_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7636EC64-7B67-44CD-9EF3-00AF406F7F7E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717DEA45-3DBD-4813-9711-E1D67A7C6E02}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11325" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
@@ -49,6 +49,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d;@"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -154,10 +157,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
@@ -186,12 +185,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -545,223 +548,222 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
